--- a/Assets/Tables/randomBox.xlsx
+++ b/Assets/Tables/randomBox.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\godd7\Desktop\Study\Github\ProjectM\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470C6AEC-2AFF-4D1A-A643-D2B64579AB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0748CC65-B4AB-4114-A9DB-524BCD5A5650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="480" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="480" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="RandomBox" sheetId="2" r:id="rId1"/>
-    <sheet name="~확률" sheetId="4" r:id="rId2"/>
+    <sheet name="randomBox" sheetId="2" r:id="rId1"/>
+    <sheet name="_확률" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,25 +28,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="60">
   <si>
-    <t>Key</t>
-  </si>
-  <si>
     <t>통상 가챠</t>
   </si>
   <si>
     <t>프랜드 가챠</t>
-  </si>
-  <si>
-    <t>RewardType</t>
-  </si>
-  <si>
-    <t>RewardKey</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Probility</t>
   </si>
   <si>
     <t>Item</t>
@@ -208,6 +193,26 @@
   </si>
   <si>
     <t>_비고(등급)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>probility</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874670DA-D032-4E1C-BA05-5E9B2F414C10}">
   <dimension ref="A2:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -556,28 +561,28 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -585,7 +590,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>23001</v>
@@ -597,10 +602,10 @@
         <v>77778</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -611,7 +616,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>23002</v>
@@ -623,10 +628,10 @@
         <v>77778</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -637,7 +642,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>23003</v>
@@ -649,10 +654,10 @@
         <v>77778</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -663,7 +668,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>23004</v>
@@ -675,10 +680,10 @@
         <v>77778</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -689,7 +694,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>23005</v>
@@ -701,10 +706,10 @@
         <v>77778</v>
       </c>
       <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
         <v>8</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -715,7 +720,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>23006</v>
@@ -727,10 +732,10 @@
         <v>77778</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -741,7 +746,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>23007</v>
@@ -753,10 +758,10 @@
         <v>77778</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -767,7 +772,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>23008</v>
@@ -779,10 +784,10 @@
         <v>77778</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -793,7 +798,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>23009</v>
@@ -805,10 +810,10 @@
         <v>77778</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -819,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>24001</v>
@@ -831,10 +836,10 @@
         <v>22728</v>
       </c>
       <c r="F12" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H12">
         <v>4</v>
@@ -845,7 +850,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>24002</v>
@@ -857,10 +862,10 @@
         <v>22728</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H13">
         <v>4</v>
@@ -871,7 +876,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>24003</v>
@@ -883,10 +888,10 @@
         <v>22728</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H14">
         <v>4</v>
@@ -897,7 +902,7 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>24004</v>
@@ -909,10 +914,10 @@
         <v>22728</v>
       </c>
       <c r="F15" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H15">
         <v>4</v>
@@ -923,7 +928,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>24005</v>
@@ -935,10 +940,10 @@
         <v>22728</v>
       </c>
       <c r="F16" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H16">
         <v>4</v>
@@ -949,7 +954,7 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <v>24006</v>
@@ -961,10 +966,10 @@
         <v>22728</v>
       </c>
       <c r="F17" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G17" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H17">
         <v>4</v>
@@ -975,7 +980,7 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C18">
         <v>24007</v>
@@ -987,10 +992,10 @@
         <v>22728</v>
       </c>
       <c r="F18" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H18">
         <v>4</v>
@@ -1001,7 +1006,7 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>24008</v>
@@ -1013,10 +1018,10 @@
         <v>22728</v>
       </c>
       <c r="F19" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H19">
         <v>4</v>
@@ -1027,7 +1032,7 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>24009</v>
@@ -1039,10 +1044,10 @@
         <v>22728</v>
       </c>
       <c r="F20" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G20" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H20">
         <v>4</v>
@@ -1053,7 +1058,7 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C21">
         <v>24010</v>
@@ -1065,10 +1070,10 @@
         <v>22728</v>
       </c>
       <c r="F21" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H21">
         <v>4</v>
@@ -1079,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <v>24011</v>
@@ -1091,10 +1096,10 @@
         <v>22728</v>
       </c>
       <c r="F22" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H22">
         <v>4</v>
@@ -1105,7 +1110,7 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C23">
         <v>25001</v>
@@ -1117,10 +1122,10 @@
         <v>3847</v>
       </c>
       <c r="F23" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H23">
         <v>5</v>
@@ -1131,7 +1136,7 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C24">
         <v>25002</v>
@@ -1143,10 +1148,10 @@
         <v>3847</v>
       </c>
       <c r="F24" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H24">
         <v>5</v>
@@ -1157,7 +1162,7 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C25">
         <v>25003</v>
@@ -1169,10 +1174,10 @@
         <v>3847</v>
       </c>
       <c r="F25" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H25">
         <v>5</v>
@@ -1183,7 +1188,7 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C26">
         <v>25004</v>
@@ -1195,10 +1200,10 @@
         <v>3847</v>
       </c>
       <c r="F26" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H26">
         <v>5</v>
@@ -1209,7 +1214,7 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C27">
         <v>25005</v>
@@ -1221,10 +1226,10 @@
         <v>3847</v>
       </c>
       <c r="F27" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H27">
         <v>5</v>
@@ -1235,7 +1240,7 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C28">
         <v>25006</v>
@@ -1247,10 +1252,10 @@
         <v>3847</v>
       </c>
       <c r="F28" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H28">
         <v>5</v>
@@ -1261,7 +1266,7 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C29">
         <v>25007</v>
@@ -1273,10 +1278,10 @@
         <v>3847</v>
       </c>
       <c r="F29" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H29">
         <v>5</v>
@@ -1287,7 +1292,7 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C30">
         <v>25008</v>
@@ -1299,10 +1304,10 @@
         <v>3847</v>
       </c>
       <c r="F30" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H30">
         <v>5</v>
@@ -1313,7 +1318,7 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C31">
         <v>25009</v>
@@ -1325,10 +1330,10 @@
         <v>3847</v>
       </c>
       <c r="F31" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G31" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H31">
         <v>5</v>
@@ -1339,7 +1344,7 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C32">
         <v>25010</v>
@@ -1351,10 +1356,10 @@
         <v>3847</v>
       </c>
       <c r="F32" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H32">
         <v>5</v>
@@ -1365,7 +1370,7 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C33">
         <v>25011</v>
@@ -1377,10 +1382,10 @@
         <v>3847</v>
       </c>
       <c r="F33" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G33" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H33">
         <v>5</v>
@@ -1391,7 +1396,7 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C34">
         <v>25012</v>
@@ -1403,10 +1408,10 @@
         <v>3847</v>
       </c>
       <c r="F34" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G34" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H34">
         <v>5</v>
@@ -1417,7 +1422,7 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C35">
         <v>25013</v>
@@ -1429,10 +1434,10 @@
         <v>3847</v>
       </c>
       <c r="F35" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G35" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H35">
         <v>5</v>
@@ -1443,7 +1448,7 @@
         <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C36">
         <v>22001</v>
@@ -1455,10 +1460,10 @@
         <v>63637</v>
       </c>
       <c r="F36" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -1469,7 +1474,7 @@
         <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C37">
         <v>22002</v>
@@ -1481,10 +1486,10 @@
         <v>63637</v>
       </c>
       <c r="F37" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -1495,7 +1500,7 @@
         <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C38">
         <v>22003</v>
@@ -1507,10 +1512,10 @@
         <v>63637</v>
       </c>
       <c r="F38" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -1521,7 +1526,7 @@
         <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C39">
         <v>22004</v>
@@ -1533,10 +1538,10 @@
         <v>63637</v>
       </c>
       <c r="F39" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -1547,7 +1552,7 @@
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C40">
         <v>22005</v>
@@ -1559,10 +1564,10 @@
         <v>63637</v>
       </c>
       <c r="F40" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -1573,7 +1578,7 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C41">
         <v>22006</v>
@@ -1585,10 +1590,10 @@
         <v>63637</v>
       </c>
       <c r="F41" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -1599,7 +1604,7 @@
         <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C42">
         <v>22007</v>
@@ -1611,10 +1616,10 @@
         <v>63637</v>
       </c>
       <c r="F42" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -1625,7 +1630,7 @@
         <v>20</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C43">
         <v>22008</v>
@@ -1637,10 +1642,10 @@
         <v>63637</v>
       </c>
       <c r="F43" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -1651,7 +1656,7 @@
         <v>20</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C44">
         <v>22009</v>
@@ -1663,10 +1668,10 @@
         <v>63637</v>
       </c>
       <c r="F44" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -1677,7 +1682,7 @@
         <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C45">
         <v>22010</v>
@@ -1689,10 +1694,10 @@
         <v>63637</v>
       </c>
       <c r="F45" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -1703,7 +1708,7 @@
         <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C46">
         <v>22011</v>
@@ -1715,10 +1720,10 @@
         <v>63637</v>
       </c>
       <c r="F46" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -1729,7 +1734,7 @@
         <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C47">
         <v>23001</v>
@@ -1741,10 +1746,10 @@
         <v>27778</v>
       </c>
       <c r="F47" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H47">
         <v>3</v>
@@ -1755,7 +1760,7 @@
         <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C48">
         <v>23002</v>
@@ -1767,10 +1772,10 @@
         <v>27778</v>
       </c>
       <c r="F48" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H48">
         <v>3</v>
@@ -1781,7 +1786,7 @@
         <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C49">
         <v>23003</v>
@@ -1793,10 +1798,10 @@
         <v>27778</v>
       </c>
       <c r="F49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -1807,7 +1812,7 @@
         <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C50">
         <v>23004</v>
@@ -1819,10 +1824,10 @@
         <v>27778</v>
       </c>
       <c r="F50" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H50">
         <v>3</v>
@@ -1833,7 +1838,7 @@
         <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C51">
         <v>23005</v>
@@ -1845,10 +1850,10 @@
         <v>27778</v>
       </c>
       <c r="F51" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H51">
         <v>3</v>
@@ -1859,7 +1864,7 @@
         <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C52">
         <v>23006</v>
@@ -1871,10 +1876,10 @@
         <v>27778</v>
       </c>
       <c r="F52" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -1885,7 +1890,7 @@
         <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C53">
         <v>23007</v>
@@ -1897,10 +1902,10 @@
         <v>27778</v>
       </c>
       <c r="F53" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -1911,7 +1916,7 @@
         <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C54">
         <v>23008</v>
@@ -1923,10 +1928,10 @@
         <v>27778</v>
       </c>
       <c r="F54" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H54">
         <v>3</v>
@@ -1937,7 +1942,7 @@
         <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C55">
         <v>23009</v>
@@ -1949,10 +1954,10 @@
         <v>27778</v>
       </c>
       <c r="F55" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H55">
         <v>3</v>
@@ -1963,7 +1968,7 @@
         <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C56">
         <v>24001</v>
@@ -1975,10 +1980,10 @@
         <v>4546</v>
       </c>
       <c r="F56" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H56">
         <v>4</v>
@@ -1989,7 +1994,7 @@
         <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C57">
         <v>24002</v>
@@ -2001,10 +2006,10 @@
         <v>4546</v>
       </c>
       <c r="F57" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H57">
         <v>4</v>
@@ -2015,7 +2020,7 @@
         <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C58">
         <v>24003</v>
@@ -2027,10 +2032,10 @@
         <v>4546</v>
       </c>
       <c r="F58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H58">
         <v>4</v>
@@ -2041,7 +2046,7 @@
         <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C59">
         <v>24004</v>
@@ -2053,10 +2058,10 @@
         <v>4546</v>
       </c>
       <c r="F59" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H59">
         <v>4</v>
@@ -2067,7 +2072,7 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C60">
         <v>24005</v>
@@ -2079,10 +2084,10 @@
         <v>4546</v>
       </c>
       <c r="F60" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H60">
         <v>4</v>
@@ -2093,7 +2098,7 @@
         <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C61">
         <v>24006</v>
@@ -2105,10 +2110,10 @@
         <v>4546</v>
       </c>
       <c r="F61" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G61" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H61">
         <v>4</v>
@@ -2119,7 +2124,7 @@
         <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C62">
         <v>24007</v>
@@ -2131,10 +2136,10 @@
         <v>4546</v>
       </c>
       <c r="F62" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H62">
         <v>4</v>
@@ -2145,7 +2150,7 @@
         <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C63">
         <v>24008</v>
@@ -2157,10 +2162,10 @@
         <v>4546</v>
       </c>
       <c r="F63" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H63">
         <v>4</v>
@@ -2171,7 +2176,7 @@
         <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C64">
         <v>24009</v>
@@ -2183,10 +2188,10 @@
         <v>4546</v>
       </c>
       <c r="F64" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G64" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H64">
         <v>4</v>
@@ -2197,7 +2202,7 @@
         <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C65">
         <v>24010</v>
@@ -2209,10 +2214,10 @@
         <v>4546</v>
       </c>
       <c r="F65" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H65">
         <v>4</v>
@@ -2223,7 +2228,7 @@
         <v>20</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C66">
         <v>24011</v>
@@ -2235,10 +2240,10 @@
         <v>4546</v>
       </c>
       <c r="F66" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G66" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H66">
         <v>4</v>
@@ -2249,7 +2254,7 @@
         <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C67">
         <v>21001</v>
@@ -2261,10 +2266,10 @@
         <v>2500</v>
       </c>
       <c r="F67" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G67" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -2281,7 +2286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAACE5B8-23C3-488B-B50E-6BEB56FB005C}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -2289,16 +2294,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1">
         <v>1000000</v>
@@ -2426,16 +2431,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E8" s="1">
         <v>1000000</v>

--- a/Assets/Tables/randomBox.xlsx
+++ b/Assets/Tables/randomBox.xlsx
@@ -8,25 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\godd7\Desktop\Study\Github\ProjectM\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0748CC65-B4AB-4114-A9DB-524BCD5A5650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D906671-2DF6-4A5E-B072-2D2EDC80F83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="480" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="randomBox" sheetId="2" r:id="rId1"/>
-    <sheet name="_확률" sheetId="4" r:id="rId2"/>
+    <sheet name="randomBox" sheetId="5" r:id="rId1"/>
+    <sheet name="items" sheetId="2" r:id="rId2"/>
+    <sheet name="_확률" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="62">
   <si>
     <t>통상 가챠</t>
   </si>
@@ -213,6 +223,14 @@
   </si>
   <si>
     <t>probility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;parent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;randomBox</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -540,16 +558,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874670DA-D032-4E1C-BA05-5E9B2F414C10}">
-  <dimension ref="A2:H67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40023D01-03B3-45C6-A891-64C8D5A5D050}">
+  <dimension ref="A2:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874670DA-D032-4E1C-BA05-5E9B2F414C10}">
+  <dimension ref="A1:H67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.75" bestFit="1" customWidth="1"/>
@@ -559,9 +611,14 @@
     <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+    </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
@@ -2282,11 +2339,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAACE5B8-23C3-488B-B50E-6BEB56FB005C}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
